--- a/BackTest/2019-10-16 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-16 BackTest PIVX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>43</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>2.439024390243902</v>
+      </c>
       <c r="L12" t="n">
         <v>795.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>43</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>795.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>53</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.03225806451613</v>
+      </c>
       <c r="L14" t="n">
         <v>795.6</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>61</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2.564102564102564</v>
+      </c>
       <c r="L15" t="n">
         <v>795.7</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>69</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>19.14893617021277</v>
+      </c>
       <c r="L16" t="n">
         <v>796.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>69</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.14893617021277</v>
+      </c>
       <c r="L17" t="n">
         <v>797.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>69</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-2.702702702702703</v>
+      </c>
       <c r="L18" t="n">
         <v>798.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>69</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>798.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>69</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L20" t="n">
         <v>799.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>70</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>40.74074074074074</v>
+      </c>
       <c r="L21" t="n">
         <v>800.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>84</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-7.317073170731707</v>
+      </c>
       <c r="L22" t="n">
         <v>800</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.976744186046512</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>799.3</v>
@@ -1466,7 +1488,7 @@
         <v>88</v>
       </c>
       <c r="K24" t="n">
-        <v>-22.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>797.6</v>
@@ -1515,7 +1537,7 @@
         <v>90</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.70588235294118</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L25" t="n">
         <v>796.5</v>
@@ -1564,7 +1586,7 @@
         <v>104</v>
       </c>
       <c r="K26" t="n">
-        <v>4.878048780487805</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L26" t="n">
         <v>796</v>
@@ -1613,7 +1635,7 @@
         <v>118</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.41666666666667</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L27" t="n">
         <v>794.1</v>
@@ -1662,7 +1684,7 @@
         <v>121</v>
       </c>
       <c r="K28" t="n">
-        <v>-13.13131313131313</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L28" t="n">
         <v>791.9</v>
@@ -1711,7 +1733,7 @@
         <v>138</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.660377358490567</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L29" t="n">
         <v>791.4</v>
@@ -1760,7 +1782,7 @@
         <v>143</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.9900990099009901</v>
+        <v>-15.06849315068493</v>
       </c>
       <c r="L30" t="n">
         <v>790.4</v>
@@ -1809,7 +1831,7 @@
         <v>147</v>
       </c>
       <c r="K31" t="n">
-        <v>3.846153846153846</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>789.7</v>
@@ -1860,7 +1882,7 @@
         <v>179</v>
       </c>
       <c r="K32" t="n">
-        <v>26.47058823529412</v>
+        <v>47.25274725274725</v>
       </c>
       <c r="L32" t="n">
         <v>793.6</v>
@@ -1911,7 +1933,7 @@
         <v>193</v>
       </c>
       <c r="K33" t="n">
-        <v>14.66666666666667</v>
+        <v>27.61904761904762</v>
       </c>
       <c r="L33" t="n">
         <v>796.5</v>
@@ -1962,7 +1984,7 @@
         <v>207</v>
       </c>
       <c r="K34" t="n">
-        <v>16.88311688311688</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L34" t="n">
         <v>800.8</v>
@@ -2013,7 +2035,7 @@
         <v>238</v>
       </c>
       <c r="K35" t="n">
-        <v>1.694915254237288</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>802.2</v>
@@ -2064,7 +2086,7 @@
         <v>256</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.29946524064171</v>
+        <v>-2.898550724637681</v>
       </c>
       <c r="L36" t="n">
         <v>800.4</v>
@@ -2115,7 +2137,7 @@
         <v>265</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.3265306122449</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="L37" t="n">
         <v>799.1</v>
@@ -2166,7 +2188,7 @@
         <v>265</v>
       </c>
       <c r="K38" t="n">
-        <v>-16.3265306122449</v>
+        <v>-21.25984251968504</v>
       </c>
       <c r="L38" t="n">
         <v>798.1</v>
@@ -2217,7 +2239,7 @@
         <v>295</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.8849557522123894</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L39" t="n">
         <v>798.4</v>
@@ -2268,7 +2290,7 @@
         <v>316</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.311740890688259</v>
+        <v>-10.05917159763314</v>
       </c>
       <c r="L40" t="n">
         <v>797.1</v>
@@ -2319,7 +2341,7 @@
         <v>333</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.661596958174905</v>
+        <v>-20.77922077922078</v>
       </c>
       <c r="L41" t="n">
         <v>797.1</v>
@@ -2370,7 +2392,7 @@
         <v>335</v>
       </c>
       <c r="K42" t="n">
-        <v>3.585657370517929</v>
+        <v>-11.26760563380282</v>
       </c>
       <c r="L42" t="n">
         <v>794.1</v>
@@ -2421,7 +2443,7 @@
         <v>335</v>
       </c>
       <c r="K43" t="n">
-        <v>5.263157894736842</v>
+        <v>-23.4375</v>
       </c>
       <c r="L43" t="n">
         <v>792.5</v>
@@ -2472,7 +2494,7 @@
         <v>371</v>
       </c>
       <c r="K44" t="n">
-        <v>17.31448763250884</v>
+        <v>27.81954887218045</v>
       </c>
       <c r="L44" t="n">
         <v>793.1</v>
@@ -2523,7 +2545,7 @@
         <v>371</v>
       </c>
       <c r="K45" t="n">
-        <v>18.14946619217082</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L45" t="n">
         <v>796.8</v>
@@ -2574,7 +2596,7 @@
         <v>371</v>
       </c>
       <c r="K46" t="n">
-        <v>13.85767790262172</v>
+        <v>60.37735849056604</v>
       </c>
       <c r="L46" t="n">
         <v>802.3</v>
@@ -2625,7 +2647,7 @@
         <v>371</v>
       </c>
       <c r="K47" t="n">
-        <v>20.15810276679842</v>
+        <v>60.37735849056604</v>
       </c>
       <c r="L47" t="n">
         <v>808.7</v>
@@ -2676,7 +2698,7 @@
         <v>400</v>
       </c>
       <c r="K48" t="n">
-        <v>8.960573476702509</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L48" t="n">
         <v>812.2</v>
